--- a/biology/Médecine/Bilan_d'extension/Bilan_d'extension.xlsx
+++ b/biology/Médecine/Bilan_d'extension/Bilan_d'extension.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bilan_d%27extension</t>
+          <t>Bilan_d'extension</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bilan d'extension est l'ensemble des examens permettant de déterminer le stade d'une tumeur maligne[1]. Le but du bilan d'extension est de déterminer le traitement le plus approprié[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bilan d'extension est l'ensemble des examens permettant de déterminer le stade d'une tumeur maligne. Le but du bilan d'extension est de déterminer le traitement le plus approprié.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bilan_d%27extension</t>
+          <t>Bilan_d'extension</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bilan d'extension diffère selon le siège primitif de la maladie cancéreuse[3]. Il est réalisé au moment du diagnostic initial, et peut être au besoin renouvelé durant l'évolution et la surveillance de la maladie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bilan d'extension diffère selon le siège primitif de la maladie cancéreuse. Il est réalisé au moment du diagnostic initial, et peut être au besoin renouvelé durant l'évolution et la surveillance de la maladie.
 Pour les tumeurs solides, l'extension s'intéresse au degré d'envahissement local, à la présence de ganglions tumoraux (envahissement régional), et à la présence de métastases à distance. Le stade est ensuite généralement exprimé selon la classification TNM.
 Pour les lymphomes, l'extension s'intéresse au siège des aires ganglionnaires atteintes et à la présence d'atteintes extra-ganglionnaires. Le stade est ensuite souvent exprimé selon la classification d'Ann Arbor.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bilan_d%27extension</t>
+          <t>Bilan_d'extension</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Utilité du bilan d'extension</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au terme du bilan d'extension, il est possible connaître le stade exact de la maladie. Ceci permet de déterminer le traitement le plus approprié[4]. Celui-ci est alors généralement discuté en réunion de concertation pluridisciplinaire en fonction des référentiels de traitement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au terme du bilan d'extension, il est possible connaître le stade exact de la maladie. Ceci permet de déterminer le traitement le plus approprié. Celui-ci est alors généralement discuté en réunion de concertation pluridisciplinaire en fonction des référentiels de traitement.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bilan_d%27extension</t>
+          <t>Bilan_d'extension</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +593,161 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Examen clinique
-L'examen clinique est la première étape du bilan d'extension[2]. Pour les tumeurs superficielles, il va par exemple s'intéresser à la taille et au nombre des lésions. Pour les tumeurs des organes profonds, certaines anomalies de l'examen clinique vont orienter vers une extension locale ou à distance. De nombreux examens complémentaires vont compléter l'examen clinique en recherchant notamment des lésions que la simple clinique ne permet pas de déceler[5].
-Radiologie
-La tomodensitométrie et l'IRM sont les examens d'imagerie les plus utilisés.
-Médecine nucléaire
-Le TEP scanner et la scintigraphie osseuse sont deux techniques de médecine nucléaire souvent utilisées.
-Endoscopie
-En particulier dans les tumeurs du tube digestif, une écho-endoscopie peut permettre de préciser la profondeur de l'envahissement.
-Marqueurs tumoraux
-Dans certains cancers, il est possible de doser dans le sang des marqueurs tumoraux. Le dosage réalisé au moment du diagnostic sert généralement de valeur de référence pour le suivi.
+          <t>Examen clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen clinique est la première étape du bilan d'extension. Pour les tumeurs superficielles, il va par exemple s'intéresser à la taille et au nombre des lésions. Pour les tumeurs des organes profonds, certaines anomalies de l'examen clinique vont orienter vers une extension locale ou à distance. De nombreux examens complémentaires vont compléter l'examen clinique en recherchant notamment des lésions que la simple clinique ne permet pas de déceler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bilan_d'extension</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_d%27extension</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Examens utilisés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Radiologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tomodensitométrie et l'IRM sont les examens d'imagerie les plus utilisés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bilan_d'extension</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_d%27extension</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Examens utilisés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le TEP scanner et la scintigraphie osseuse sont deux techniques de médecine nucléaire souvent utilisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bilan_d'extension</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_d%27extension</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Examens utilisés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Endoscopie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En particulier dans les tumeurs du tube digestif, une écho-endoscopie peut permettre de préciser la profondeur de l'envahissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bilan_d'extension</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_d%27extension</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Examens utilisés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Marqueurs tumoraux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certains cancers, il est possible de doser dans le sang des marqueurs tumoraux. Le dosage réalisé au moment du diagnostic sert généralement de valeur de référence pour le suivi.
 </t>
         </is>
       </c>
